--- a/docs/classic/versioned_docs/version-0.3/indoxArcg/notebooks_list.xlsx
+++ b/docs/classic/versioned_docs/version-0.3/indoxArcg/notebooks_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Notebook</t>
   </si>
@@ -31,6 +31,9 @@
     <t>CsvLoader.ipynb</t>
   </si>
   <si>
+    <t>https://github.com/osllmai/inDox/blob/master/cookbook/indoxArcg/CsvLoader.ipynb</t>
+  </si>
+  <si>
     <t>Deeplake_VectorStore.ipynb</t>
   </si>
   <si>
@@ -40,6 +43,12 @@
     <t>PdfLoader.ipynb</t>
   </si>
   <si>
+    <t>https://github.com/osllmai/inDox/blob/master/cookbook/indoxArcg/PdfLoader.ipynb</t>
+  </si>
+  <si>
+    <t>03-21-2025</t>
+  </si>
+  <si>
     <t>arxiv_chroma_semantic.ipynb</t>
   </si>
   <si>
@@ -49,9 +58,6 @@
     <t>https://github.com/osllmai/inDox/blob/master/cookbook/indoxArcg/cag.ipynb</t>
   </si>
   <si>
-    <t>21-3-2024</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
   </si>
   <si>
     <t>qdrant.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/osllmai/inDox/blob/master/cookbook/indoxArcg/quick_start.ipynb</t>
   </si>
   <si>
     <t>quick_start.ipynb</t>
@@ -504,7 +513,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="39.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -528,13 +537,15 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -542,7 +553,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -550,15 +561,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -566,21 +581,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -588,7 +603,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -596,7 +611,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -604,7 +619,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -612,7 +627,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -620,7 +635,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -628,7 +643,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -636,7 +651,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -644,7 +659,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -652,7 +667,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -660,7 +675,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -668,7 +683,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -676,7 +691,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -684,7 +699,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -692,7 +707,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -700,7 +715,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -708,7 +723,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -716,7 +731,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -724,15 +739,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -740,7 +761,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -748,7 +769,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -756,7 +777,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -764,7 +785,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -772,7 +793,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
